--- a/financial_models/opportunities/1766.HK_Valuation_v1.00.xlsx
+++ b/financial_models/opportunities/1766.HK_Valuation_v1.00.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEFC80BD-DB59-47E1-9E41-A41A1B1A92A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{788A3D1F-DB27-4F1F-B71F-CC406E9111C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="269">
   <si>
     <t>Company Info:</t>
   </si>
@@ -563,9 +563,6 @@
   <si>
     <t>4. Operating Assets</t>
     <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>Valuation Drivers</t>
   </si>
   <si>
     <t>External Drivers</t>
@@ -2206,15 +2203,7 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
-  <dxfs count="22">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7B7B7"/>
-          <bgColor rgb="FFB7B7B7"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="21">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -3580,8 +3569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E97" sqref="E97"/>
+    <sheetView showGridLines="0" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -3594,28 +3583,28 @@
     <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C4" s="189" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C5" s="192" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C6" s="190">
         <v>45593</v>
@@ -3631,7 +3620,7 @@
     </row>
     <row r="8" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C8" s="192" t="s">
         <v>71</v>
@@ -3639,15 +3628,15 @@
     </row>
     <row r="9" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C9" s="193" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C10" s="194">
         <v>28698864088</v>
@@ -3655,10 +3644,10 @@
     </row>
     <row r="11" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C11" s="193" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
@@ -3679,7 +3668,7 @@
     </row>
     <row r="14" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="219" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C14" s="220">
         <v>45473</v>
@@ -3687,10 +3676,10 @@
     </row>
     <row r="15" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="219" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C15" s="177" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
@@ -3704,55 +3693,55 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="241" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C17" s="243" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="241" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C18" s="243" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="241" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C19" s="243" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="242" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C20" s="243" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="225" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C21" s="243" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="227" t="s">
+        <v>232</v>
+      </c>
+      <c r="C22" s="244" t="s">
         <v>233</v>
-      </c>
-      <c r="C22" s="244" t="s">
-        <v>234</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -3883,7 +3872,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C29" s="151">
         <v>0</v>
@@ -4163,7 +4152,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C44" s="251">
         <v>0.2</v>
@@ -4181,11 +4170,11 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>4.592274828481873E-2</v>
+        <v>4.6875881142317812E-2</v>
       </c>
       <c r="D45" s="153" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4230,13 +4219,13 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C47" s="195" t="s">
         <v>34</v>
       </c>
       <c r="D47" s="195" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E47" s="111" t="s">
         <v>36</v>
@@ -4305,7 +4294,7 @@
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C53" s="59">
         <v>0</v>
@@ -4437,7 +4426,7 @@
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C63" s="59">
         <v>0</v>
@@ -4644,7 +4633,7 @@
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C83" s="59">
         <v>160389894</v>
@@ -4664,7 +4653,7 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C86" s="198">
         <v>5</v>
@@ -4672,10 +4661,10 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C87" s="237" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
@@ -4688,10 +4677,10 @@
       </c>
       <c r="D89" s="268"/>
       <c r="E89" s="89" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F89" s="50" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -4752,7 +4741,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4773,7 +4762,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4791,7 +4780,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4830,7 +4819,7 @@
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -4848,7 +4837,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C98" s="238">
         <f>C44</f>
@@ -4872,27 +4861,27 @@
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C16 C25:M33 C44:M44 E91:F93 F94 E95:F95 F96:F98">
-    <cfRule type="containsBlanks" dxfId="21" priority="11">
+    <cfRule type="containsBlanks" dxfId="20" priority="11">
       <formula>LEN(TRIM(C16))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C87">
-    <cfRule type="containsBlanks" dxfId="20" priority="4">
+    <cfRule type="containsBlanks" dxfId="19" priority="4">
       <formula>LEN(TRIM(C87))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98">
-    <cfRule type="containsBlanks" dxfId="19" priority="3">
+    <cfRule type="containsBlanks" dxfId="18" priority="3">
       <formula>LEN(TRIM(C98))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34:M43">
-    <cfRule type="containsBlanks" dxfId="18" priority="17">
+    <cfRule type="containsBlanks" dxfId="17" priority="17">
       <formula>LEN(TRIM(D34))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E98">
-    <cfRule type="containsBlanks" dxfId="17" priority="1">
+    <cfRule type="containsBlanks" dxfId="16" priority="1">
       <formula>LEN(TRIM(E98))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4935,7 +4924,7 @@
   <dimension ref="A1:J923"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29:H29"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4976,7 +4965,7 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C3" s="274" t="str">
         <f>Inputs!C4</f>
@@ -4988,7 +4977,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>4.6599998474121103</v>
+        <v>4.58</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>2</v>
@@ -4996,7 +4985,7 @@
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C4" s="276" t="str">
         <f>Inputs!C5</f>
@@ -5016,7 +5005,7 @@
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C5" s="278">
         <f>Inputs!C6</f>
@@ -5029,7 +5018,7 @@
       </c>
       <c r="G5" s="272">
         <f>G3*G4/1000000</f>
-        <v>133736.7022709809</v>
+        <v>131440.79752304</v>
       </c>
       <c r="H5" s="272"/>
       <c r="I5" s="38"/>
@@ -5063,7 +5052,7 @@
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C7" s="188" t="str">
         <f>Inputs!C8</f>
@@ -5078,7 +5067,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="133">
-        <v>1.07</v>
+        <v>1.0734576781590779</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5088,40 +5077,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C10" s="173">
         <v>4.2099999999999999E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C11" s="174">
         <v>5.3099999999999994E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C12" s="175">
         <v>0.06</v>
@@ -5134,29 +5123,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C14" s="173">
         <v>2.1309999999999999E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C15" s="173">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C16" s="174">
         <v>0.16</v>
@@ -5166,12 +5155,12 @@
         <v>CN</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C17" s="176">
         <v>7.1999999999999995E-2</v>
@@ -5181,7 +5170,7 @@
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="142" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C19" s="135" t="s">
         <v>52</v>
@@ -5189,21 +5178,21 @@
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="137" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C20" s="172">
         <f>Fin_Analysis!I75</f>
         <v>0.78463553343209413</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G20" s="173">
         <v>0.15</v>
@@ -5211,7 +5200,7 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="137" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C21" s="172">
         <f>Fin_Analysis!I77</f>
@@ -5222,58 +5211,58 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="137" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C22" s="172">
         <f>Fin_Analysis!I78</f>
         <v>1.2515926965280349E-5</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="137" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C23" s="172">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G23" s="178">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.62522980901251923</v>
+        <v>0.61251693706354315</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C24" s="172">
         <f>Fin_Analysis!I81</f>
         <v>0</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G24" s="179">
         <f>(Fin_Analysis!H86*G7)/G3</f>
-        <v>7.753387659424861E-2</v>
+        <v>7.9143102699204701E-2</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C25" s="172">
         <f>Fin_Analysis!I82</f>
         <v>8.8200573996119572E-5</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G25" s="172">
         <f>Fin_Analysis!I88</f>
@@ -5282,18 +5271,18 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C26" s="172">
         <f>Fin_Analysis!I83</f>
         <v>5.5156426590839844E-2</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>4.592274828481873E-2</v>
+        <v>4.6875881142317812E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5303,40 +5292,40 @@
         <v>7</v>
       </c>
       <c r="C28" s="89" t="s">
+        <v>167</v>
+      </c>
+      <c r="D28" s="43" t="s">
         <v>168</v>
-      </c>
-      <c r="D28" s="43" t="s">
-        <v>169</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G28" s="270" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H28" s="270"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>1.5722045354425844</v>
+        <v>1.5844849599972735</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>3.0220610565096293</v>
+        <v>3.0456662503425567</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>1.8496523946383348</v>
+        <v>1.8640999529379689</v>
       </c>
       <c r="G29" s="271">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>2.6278791795735907</v>
+        <v>2.6484054350804844</v>
       </c>
       <c r="H29" s="271"/>
     </row>
@@ -5344,21 +5333,21 @@
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="197" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C32" s="225"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C33" s="246" t="str">
         <f>Inputs!C17</f>
@@ -5368,7 +5357,7 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C34" s="226" t="str">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
@@ -5379,14 +5368,14 @@
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="197" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C35" s="225"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C36" s="246" t="str">
         <f>Inputs!C18</f>
@@ -5396,7 +5385,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C37" s="246" t="str">
         <f>Inputs!C19</f>
@@ -5406,14 +5395,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="197" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C38" s="225"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C39" s="246" t="str">
         <f>Inputs!C20</f>
@@ -5423,7 +5412,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C40" s="246" t="str">
         <f>Inputs!C21</f>
@@ -5438,14 +5427,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="227" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C43" s="245" t="str">
         <f>Inputs!C22</f>
@@ -6345,27 +6334,27 @@
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
-    <cfRule type="containsBlanks" dxfId="16" priority="5">
+    <cfRule type="containsBlanks" dxfId="15" priority="5">
       <formula>LEN(TRIM(C11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="containsBlanks" dxfId="15" priority="3">
+    <cfRule type="containsBlanks" dxfId="14" priority="3">
       <formula>LEN(TRIM(D12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="containsBlanks" dxfId="14" priority="2">
+    <cfRule type="containsBlanks" dxfId="13" priority="2">
       <formula>LEN(TRIM(D17))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="13" priority="41" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="41" operator="greaterThan">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
-    <cfRule type="containsBlanks" dxfId="12" priority="1">
+    <cfRule type="containsBlanks" dxfId="11" priority="1">
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6433,16 +6422,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="149" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F2" s="119" t="s">
+        <v>204</v>
+      </c>
+      <c r="G2" s="149" t="s">
         <v>205</v>
       </c>
-      <c r="G2" s="149" t="s">
+      <c r="H2" s="148" t="s">
         <v>206</v>
-      </c>
-      <c r="H2" s="148" t="s">
-        <v>207</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -6460,7 +6449,7 @@
         <v>45291</v>
       </c>
       <c r="E3" s="147" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -6493,7 +6482,7 @@
         <v>CNY</v>
       </c>
       <c r="E4" s="147" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -6860,7 +6849,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C12" s="200">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6911,7 +6900,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="229" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C13" s="230">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6962,7 +6951,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="229" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C14" s="231">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -7013,7 +7002,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="232" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C15" s="233">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -7115,7 +7104,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C17" s="200">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7268,7 +7257,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C20" s="153">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -8288,7 +8277,7 @@
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="98" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C40" s="156">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
@@ -8339,7 +8328,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8408,7 +8397,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C43" s="154">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8612,7 +8601,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C47" s="154">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -10305,22 +10294,22 @@
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M23 C27:M40">
-    <cfRule type="containsBlanks" dxfId="11" priority="4">
+    <cfRule type="containsBlanks" dxfId="10" priority="4">
       <formula>LEN(TRIM(C6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:M25">
-    <cfRule type="containsBlanks" dxfId="10" priority="3">
+    <cfRule type="containsBlanks" dxfId="9" priority="3">
       <formula>LEN(TRIM(C25))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24:M24">
-    <cfRule type="containsBlanks" dxfId="9" priority="2">
+    <cfRule type="containsBlanks" dxfId="8" priority="2">
       <formula>LEN(TRIM(D24))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="containsBlanks" dxfId="8" priority="1">
+    <cfRule type="containsBlanks" dxfId="7" priority="1">
       <formula>LEN(TRIM(F4))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10341,8 +10330,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A94" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E104" sqref="E104"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H103" sqref="H103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10435,11 +10424,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-140833676.06</v>
+        <v>-141288776.55137879</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>1.7044973418112721</v>
+        <v>1.7067739072990378</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -10510,7 +10499,7 @@
         <v>34</v>
       </c>
       <c r="D10" s="74" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E10" s="74" t="s">
         <v>35</v>
@@ -10668,7 +10657,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -11080,7 +11069,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -11817,11 +11806,11 @@
       </c>
       <c r="D72" s="268"/>
       <c r="E72" s="282" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F72" s="282"/>
       <c r="H72" s="282" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I72" s="282"/>
       <c r="K72" s="50" t="s">
@@ -11921,7 +11910,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -11951,7 +11940,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -11981,7 +11970,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="257" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C79" s="258">
         <f>C76-C77-C78</f>
@@ -12044,7 +12033,7 @@
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -12074,7 +12063,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12155,7 +12144,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="264" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C85" s="258">
         <f>C83*(1-I84)</f>
@@ -12186,7 +12175,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C86" s="168">
         <f>C85*Data!C4/Common_Shares</f>
@@ -12207,28 +12196,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.753387659424861E-2</v>
+        <v>7.9143102699204701E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.753387659424861E-2</v>
+        <v>7.9143102699204701E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.753387659424861E-2</v>
+        <v>7.9143102699204701E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C88" s="170">
         <f>Inputs!C44</f>
@@ -12258,21 +12247,21 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.592274828481873E-2</v>
+        <v>4.6875881142317812E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.592274828481873E-2</v>
+        <v>4.6875881142317812E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.592274828481873E-2</v>
+        <v>4.6875881142317812E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12283,8 +12272,9 @@
     </row>
     <row r="91" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="5"/>
-      <c r="B91" s="106" t="s">
-        <v>156</v>
+      <c r="B91" s="106" t="str">
+        <f xml:space="preserve"> "Valuation Drivers in "&amp;Dashboard!H3</f>
+        <v>Valuation Drivers in HKD</v>
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
@@ -12293,22 +12283,22 @@
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C92" s="199" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E92" s="282" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F92" s="282"/>
       <c r="G92" s="87"/>
       <c r="H92" s="282" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I92" s="282"/>
       <c r="K92" s="24"/>
@@ -12327,24 +12317,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F93" s="144">
-        <f>FV(E87,D93,0,-(E86/C93))</f>
-        <v>6.812645506959436</v>
+        <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
+        <v>7.3678580528263424</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I93" s="144">
-        <f>FV(H87,D93,0,-(H86/C93))</f>
-        <v>6.812645506959436</v>
+        <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
+        <v>7.3678580528263424</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C94" s="183">
         <f>Dashboard!G20</f>
@@ -12352,18 +12342,18 @@
       </c>
       <c r="D94" s="145"/>
       <c r="E94" s="87" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F94" s="144">
-        <f>FV(E89,D93,0,-(E88/C93))</f>
-        <v>3.4769267647966351</v>
+        <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
+        <v>3.7493708385601945</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I94" s="144">
-        <f>FV(H89,D93,0,-(H88/C93))</f>
-        <v>3.4769267647966351</v>
+        <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
+        <v>3.7493708385601945</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12382,14 +12372,14 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E96" s="184" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="228" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H96" s="184" t="str">
         <f>H72</f>
@@ -12406,21 +12396,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>104009994.79752003</v>
+        <v>105127601.49805048</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
-        <f>PV(C94,D93,0,-F93)*Exchange_Rate</f>
-        <v>3.6241850715272816</v>
+        <f>PV(C94,D93,0,-F93)</f>
+        <v>3.663127612845416</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
-        <f>PV(C94,D93,0,-I93)*Exchange_Rate</f>
-        <v>3.6241850715272816</v>
+        <f>PV(C94,D93,0,-I93)</f>
+        <v>3.663127612845416</v>
       </c>
       <c r="I97" s="123">
-        <f>PV(C93,D93,0,-I93)*Exchange_Rate</f>
-        <v>5.1490326074214572</v>
+        <f>PV(C93,D93,0,-I93)</f>
+        <v>5.2043599185563796</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12430,14 +12420,14 @@
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>42282887.190000005</v>
+        <v>42419523.279289365</v>
       </c>
       <c r="D98" s="214"/>
       <c r="E98" s="214"/>
       <c r="F98" s="214"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>1.4733296433038952</v>
+        <v>1.4780906710877959</v>
       </c>
       <c r="I98" s="216"/>
       <c r="K98" s="24"/>
@@ -12452,7 +12442,7 @@
       </c>
       <c r="D99" s="215"/>
       <c r="E99" s="146">
-        <f>IF(H99&gt;0,H99*0.85,H99*1.15)</f>
+        <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
         <v>0</v>
       </c>
       <c r="F99" s="215"/>
@@ -12469,27 +12459,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>61727107.607520021</v>
+        <v>62708078.218761116</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>1.8282271139898785</v>
+        <v>1.8572814004939771</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>2.1508554282233865</v>
+        <v>2.1850369417576201</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>2.1508554282233865</v>
+        <v>2.1850369417576201</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>2.1508554282233869</v>
+        <v>2.1850369417576201</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>3.675702964117562</v>
+        <v>3.7262692474685837</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12499,21 +12489,21 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E102" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="228" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H102" s="184" t="str">
         <f>H96</f>
@@ -12526,31 +12516,31 @@
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>53082922.683769308</v>
+        <v>53497551.195813961</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.5722045354425844</v>
+        <v>1.5844849599972735</v>
       </c>
       <c r="E103" s="123">
-        <f>PV(C94,D93,0,-F94)*Exchange_Rate</f>
-        <v>1.8496523946383348</v>
+        <f>PV(C94,D93,0,-F94)</f>
+        <v>1.8640999529379689</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>1.8496523946383348</v>
+        <v>1.8640999529379689</v>
       </c>
       <c r="H103" s="123">
-        <f>PV(C94,D93,0,-I94)*Exchange_Rate</f>
-        <v>1.8496523946383348</v>
+        <f>PV(C94,D93,0,-I94)</f>
+        <v>1.8640999529379689</v>
       </c>
       <c r="I103" s="109">
-        <f>PV(C93,D93,0,-I94)*Exchange_Rate</f>
-        <v>2.6278791795735907</v>
+        <f>PV(C93,D93,0,-I94)</f>
+        <v>2.6484054350804844</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12560,21 +12550,21 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E105" s="185" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="228" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H105" s="185" t="str">
         <f>H96</f>
@@ -12587,31 +12577,31 @@
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>57405015.14564465</v>
+        <v>58102814.707287543</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>1.7002158247162313</v>
+        <v>1.7208831802456253</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>2.0002539114308604</v>
+        <v>2.0245684473477947</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>2.0002539114308604</v>
+        <v>2.0245684473477947</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>2.0002539114308608</v>
+        <v>2.0245684473477947</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>3.1517910718455764</v>
+        <v>3.1873373412745343</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12620,7 +12610,7 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>
@@ -12644,32 +12634,32 @@
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C108">
-    <cfRule type="containsBlanks" dxfId="7" priority="8">
+    <cfRule type="containsBlanks" dxfId="6" priority="8">
       <formula>LEN(TRIM(C108))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E74:E82 H74:H82 C86 C88">
-    <cfRule type="containsBlanks" dxfId="6" priority="11">
+    <cfRule type="containsBlanks" dxfId="5" priority="11">
       <formula>LEN(TRIM(C74))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E88">
-    <cfRule type="containsBlanks" dxfId="5" priority="5">
+    <cfRule type="containsBlanks" dxfId="4" priority="5">
       <formula>LEN(TRIM(E88))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F84">
-    <cfRule type="containsBlanks" dxfId="4" priority="6">
+    <cfRule type="containsBlanks" dxfId="3" priority="6">
       <formula>LEN(TRIM(F84))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H88">
-    <cfRule type="containsBlanks" dxfId="2" priority="10">
+    <cfRule type="containsBlanks" dxfId="1" priority="10">
       <formula>LEN(TRIM(H88))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I84">
-    <cfRule type="containsBlanks" dxfId="1" priority="15">
+    <cfRule type="containsBlanks" dxfId="0" priority="15">
       <formula>LEN(TRIM(I84))=0</formula>
     </cfRule>
   </conditionalFormatting>
